--- a/17. LinkedIn Learning/01. Microsoft Excel/01. Master Microsoft Excel - Learning Path/04. Excel - Creating a basic dashboard/Material/Ex_Files_Dashboard_Excel2016/Exercise Files/Chapter02/CreateLinks.xlsx
+++ b/17. LinkedIn Learning/01. Microsoft Excel/01. Master Microsoft Excel - Learning Path/04. Excel - Creating a basic dashboard/Material/Ex_Files_Dashboard_Excel2016/Exercise Files/Chapter02/CreateLinks.xlsx
@@ -1,23 +1,36 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="17329"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23231"/>
   <workbookPr autoCompressPictures="0" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Curt\Desktop\Exercise Files\Chapter02\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\Descargas\1. GIT\OnlineCourses\17. LinkedIn Learning\01. Microsoft Excel\01. Master Microsoft Excel - Learning Path\04. Excel - Creating a basic dashboard\Material\Ex_Files_Dashboard_Excel2016\Exercise Files\Chapter02\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CAD08FA0-D6CF-471F-ACC3-D6BC5272A8B2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="27195" windowHeight="14820"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Dashboard" sheetId="3" r:id="rId1"/>
     <sheet name="RoomService" sheetId="4" r:id="rId2"/>
     <sheet name="CityData" sheetId="2" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="171027" concurrentCalc="0"/>
+  <externalReferences>
+    <externalReference r:id="rId4"/>
+  </externalReferences>
+  <calcPr calcId="191029" concurrentCalc="0"/>
   <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
     </ext>
@@ -220,14 +233,14 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="4">
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="164" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="165" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="164" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="165" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="166" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="167" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="9"/>
       <color theme="1"/>
@@ -277,14 +290,6 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <i/>
-      <sz val="9"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -312,64 +317,41 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="6">
+  <cellStyleXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="44" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="3" applyFont="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="3" applyFont="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="5" applyFont="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="6" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="6">
-    <cellStyle name="Comma" xfId="4" builtinId="3"/>
-    <cellStyle name="Currency" xfId="3" builtinId="4"/>
-    <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
-    <cellStyle name="Heading 3" xfId="5" builtinId="18"/>
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
+  <cellStyles count="7">
+    <cellStyle name="Hipervínculo" xfId="1" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="6" builtinId="8"/>
+    <cellStyle name="Hipervínculo visitado" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="Millares" xfId="4" builtinId="3"/>
+    <cellStyle name="Moneda" xfId="3" builtinId="4"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Título 3" xfId="5" builtinId="18"/>
   </cellStyles>
   <dxfs count="8">
-    <dxf>
-      <numFmt numFmtId="164" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="9"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
     <dxf>
       <numFmt numFmtId="2" formatCode="0.00"/>
     </dxf>
@@ -414,6 +396,31 @@
         <family val="2"/>
         <scheme val="none"/>
       </font>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="166" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="166" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -639,49 +646,62 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="SourceData02"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="5" name="DeptExpenses" displayName="DeptExpenses" ref="A3:D28" totalsRowCount="1" headerRowDxfId="2">
-  <autoFilter ref="A3:D27"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="DeptExpenses" displayName="DeptExpenses" ref="A3:D28" totalsRowCount="1" headerRowDxfId="7">
+  <autoFilter ref="A3:D27" xr:uid="{00000000-0009-0000-0100-000005000000}"/>
   <tableColumns count="4">
-    <tableColumn id="1" name="Year" totalsRowLabel="Total"/>
-    <tableColumn id="2" name="Quarter"/>
-    <tableColumn id="3" name="Month"/>
-    <tableColumn id="5" name="Revenue" totalsRowFunction="sum" dataDxfId="1" totalsRowDxfId="0" dataCellStyle="Currency"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Year" totalsRowLabel="Total"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Quarter"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Month"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="Revenue" totalsRowFunction="sum" dataDxfId="6" totalsRowDxfId="5"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="GuestCount" displayName="GuestCount" ref="A3:E164" totalsRowCount="1" headerRowDxfId="7">
-  <autoFilter ref="A3:E163"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="GuestCount" displayName="GuestCount" ref="A3:E164" totalsRowCount="1" headerRowDxfId="4">
+  <autoFilter ref="A3:E163" xr:uid="{00000000-0009-0000-0100-000003000000}"/>
   <tableColumns count="5">
-    <tableColumn id="1" name="Year" totalsRowLabel="Total"/>
-    <tableColumn id="2" name="Quarter"/>
-    <tableColumn id="3" name="City"/>
-    <tableColumn id="4" name="State"/>
-    <tableColumn id="5" name="Guests" totalsRowFunction="sum" dataDxfId="6"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="Year" totalsRowLabel="Total"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="Quarter"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0100-000003000000}" name="City"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0100-000004000000}" name="State"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0100-000005000000}" name="Guests" totalsRowFunction="sum" dataDxfId="3"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="AvgDailyRate" displayName="AvgDailyRate" ref="H3:L164" totalsRowCount="1" headerRowDxfId="5">
-  <autoFilter ref="H3:L163"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{00000000-000C-0000-FFFF-FFFF02000000}" name="AvgDailyRate" displayName="AvgDailyRate" ref="H3:L164" totalsRowCount="1" headerRowDxfId="2">
+  <autoFilter ref="H3:L163" xr:uid="{00000000-0009-0000-0100-000004000000}"/>
   <tableColumns count="5">
-    <tableColumn id="1" name="Year" totalsRowLabel="Total"/>
-    <tableColumn id="2" name="Quarter"/>
-    <tableColumn id="3" name="City"/>
-    <tableColumn id="4" name="State"/>
-    <tableColumn id="5" name="AvgDailyRate" totalsRowFunction="average" dataDxfId="4" totalsRowDxfId="3"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0200-000001000000}" name="Year" totalsRowLabel="Total"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0200-000002000000}" name="Quarter"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0200-000003000000}" name="City"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0200-000004000000}" name="State"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0200-000005000000}" name="AvgDailyRate" totalsRowFunction="average" dataDxfId="1" totalsRowDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1000,78 +1020,93 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:D12"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="12" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="22.83203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="1" spans="2:4" x14ac:dyDescent="0.25">
       <c r="D1" s="9" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="2" spans="2:4" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:4" ht="14.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B2" s="6" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="3" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B3" s="4"/>
-    </row>
-    <row r="5" spans="2:4" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B3" s="4">
+        <f>DeptExpenses[[#Totals],[Revenue]]</f>
+        <v>977443</v>
+      </c>
+    </row>
+    <row r="5" spans="2:4" ht="14.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B5" s="6" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="6" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B6" s="8"/>
-    </row>
-    <row r="8" spans="2:4" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B6" s="8">
+        <f>GuestCount[[#Totals],[Guests]]</f>
+        <v>241078</v>
+      </c>
+    </row>
+    <row r="8" spans="2:4" ht="14.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B8" s="6" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="9" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B9" s="4"/>
-    </row>
-    <row r="11" spans="2:4" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B9" s="4">
+        <f>AvgDailyRate[[#Totals],[AvgDailyRate]]</f>
+        <v>101.92212500000002</v>
+      </c>
+    </row>
+    <row r="11" spans="2:4" ht="14.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B11" s="6" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="12" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B12" s="4"/>
+    <row r="12" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B12" s="4">
+        <f>[1]!DeptExpenses[[#Totals],[Expenses]]</f>
+        <v>5347182</v>
+      </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="D1" r:id="rId1" xr:uid="{17541EDD-022B-4627-9534-9E02C72ADD71}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
+  <pageSetup orientation="portrait" r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A3:D28"/>
   <sheetViews>
     <sheetView zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="D28" sqref="D28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="12" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="12.83203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.83203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16.5" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.1640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
@@ -1085,7 +1120,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>2015</v>
       </c>
@@ -1099,7 +1134,7 @@
         <v>15834</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>2015</v>
       </c>
@@ -1113,7 +1148,7 @@
         <v>37753</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>2015</v>
       </c>
@@ -1127,7 +1162,7 @@
         <v>36952</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>2015</v>
       </c>
@@ -1141,7 +1176,7 @@
         <v>58449</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>2015</v>
       </c>
@@ -1155,7 +1190,7 @@
         <v>27764</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>2015</v>
       </c>
@@ -1169,7 +1204,7 @@
         <v>23472</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>2015</v>
       </c>
@@ -1183,7 +1218,7 @@
         <v>51503</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>2015</v>
       </c>
@@ -1197,7 +1232,7 @@
         <v>46833</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>2015</v>
       </c>
@@ -1211,7 +1246,7 @@
         <v>59446</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>2015</v>
       </c>
@@ -1225,7 +1260,7 @@
         <v>21379</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>2015</v>
       </c>
@@ -1239,7 +1274,7 @@
         <v>37933</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>2015</v>
       </c>
@@ -1253,7 +1288,7 @@
         <v>58261</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>2016</v>
       </c>
@@ -1267,7 +1302,7 @@
         <v>45648</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>2016</v>
       </c>
@@ -1281,7 +1316,7 @@
         <v>30722</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>2016</v>
       </c>
@@ -1295,7 +1330,7 @@
         <v>58381</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>2016</v>
       </c>
@@ -1309,7 +1344,7 @@
         <v>54868</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>2016</v>
       </c>
@@ -1323,7 +1358,7 @@
         <v>29964</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>2016</v>
       </c>
@@ -1337,7 +1372,7 @@
         <v>40604</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>2016</v>
       </c>
@@ -1351,7 +1386,7 @@
         <v>58372</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>2016</v>
       </c>
@@ -1365,7 +1400,7 @@
         <v>32005</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>2016</v>
       </c>
@@ -1379,7 +1414,7 @@
         <v>36853</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>2016</v>
       </c>
@@ -1393,7 +1428,7 @@
         <v>31603</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>2016</v>
       </c>
@@ -1407,7 +1442,7 @@
         <v>58416</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>2016</v>
       </c>
@@ -1421,7 +1456,7 @@
         <v>24428</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>57</v>
       </c>
@@ -1440,24 +1475,24 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A3:L164"/>
   <sheetViews>
-    <sheetView zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
+    <sheetView topLeftCell="D149" zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
       <selection activeCell="F1" sqref="F1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="12" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="13.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.7109375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="15" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="7.5" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="13.6640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13.7109375" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="15" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="15.1640625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="15.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>0</v>
       </c>
@@ -1489,7 +1524,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>2015</v>
       </c>
@@ -1521,7 +1556,7 @@
         <v>114.3</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>2015</v>
       </c>
@@ -1553,7 +1588,7 @@
         <v>108.12</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>2015</v>
       </c>
@@ -1585,7 +1620,7 @@
         <v>88.44</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>2015</v>
       </c>
@@ -1617,7 +1652,7 @@
         <v>104.01</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>2015</v>
       </c>
@@ -1649,7 +1684,7 @@
         <v>101.06</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>2015</v>
       </c>
@@ -1681,7 +1716,7 @@
         <v>116.17</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>2015</v>
       </c>
@@ -1713,7 +1748,7 @@
         <v>90.86</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>2015</v>
       </c>
@@ -1745,7 +1780,7 @@
         <v>112.13</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>2015</v>
       </c>
@@ -1777,7 +1812,7 @@
         <v>117.84</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>2015</v>
       </c>
@@ -1809,7 +1844,7 @@
         <v>91.78</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>2015</v>
       </c>
@@ -1841,7 +1876,7 @@
         <v>111.17</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>2015</v>
       </c>
@@ -1873,7 +1908,7 @@
         <v>101.84</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>2015</v>
       </c>
@@ -1905,7 +1940,7 @@
         <v>99.09</v>
       </c>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>2015</v>
       </c>
@@ -1937,7 +1972,7 @@
         <v>101.47</v>
       </c>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>2015</v>
       </c>
@@ -1969,7 +2004,7 @@
         <v>107.44</v>
       </c>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>2015</v>
       </c>
@@ -2001,7 +2036,7 @@
         <v>112.41</v>
       </c>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>2015</v>
       </c>
@@ -2033,7 +2068,7 @@
         <v>107.42</v>
       </c>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>2015</v>
       </c>
@@ -2065,7 +2100,7 @@
         <v>96.01</v>
       </c>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>2015</v>
       </c>
@@ -2097,7 +2132,7 @@
         <v>101.42</v>
       </c>
     </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>2015</v>
       </c>
@@ -2129,7 +2164,7 @@
         <v>116.41</v>
       </c>
     </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>2015</v>
       </c>
@@ -2161,7 +2196,7 @@
         <v>117.67</v>
       </c>
     </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>2015</v>
       </c>
@@ -2193,7 +2228,7 @@
         <v>89.34</v>
       </c>
     </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>2015</v>
       </c>
@@ -2225,7 +2260,7 @@
         <v>97.34</v>
       </c>
     </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>2015</v>
       </c>
@@ -2257,7 +2292,7 @@
         <v>104.62</v>
       </c>
     </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>2015</v>
       </c>
@@ -2289,7 +2324,7 @@
         <v>108.53</v>
       </c>
     </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>2015</v>
       </c>
@@ -2321,7 +2356,7 @@
         <v>94.2</v>
       </c>
     </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>2015</v>
       </c>
@@ -2353,7 +2388,7 @@
         <v>94.93</v>
       </c>
     </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>2015</v>
       </c>
@@ -2385,7 +2420,7 @@
         <v>110.51</v>
       </c>
     </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>2015</v>
       </c>
@@ -2417,7 +2452,7 @@
         <v>87.22</v>
       </c>
     </row>
-    <row r="33" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>2015</v>
       </c>
@@ -2449,7 +2484,7 @@
         <v>111.19</v>
       </c>
     </row>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>2015</v>
       </c>
@@ -2481,7 +2516,7 @@
         <v>108.36</v>
       </c>
     </row>
-    <row r="35" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>2015</v>
       </c>
@@ -2513,7 +2548,7 @@
         <v>86.62</v>
       </c>
     </row>
-    <row r="36" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>2015</v>
       </c>
@@ -2545,7 +2580,7 @@
         <v>90.76</v>
       </c>
     </row>
-    <row r="37" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>2015</v>
       </c>
@@ -2577,7 +2612,7 @@
         <v>107.18</v>
       </c>
     </row>
-    <row r="38" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>2015</v>
       </c>
@@ -2609,7 +2644,7 @@
         <v>88.42</v>
       </c>
     </row>
-    <row r="39" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>2015</v>
       </c>
@@ -2641,7 +2676,7 @@
         <v>92.07</v>
       </c>
     </row>
-    <row r="40" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>2015</v>
       </c>
@@ -2673,7 +2708,7 @@
         <v>104.96</v>
       </c>
     </row>
-    <row r="41" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>2015</v>
       </c>
@@ -2705,7 +2740,7 @@
         <v>88.07</v>
       </c>
     </row>
-    <row r="42" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>2015</v>
       </c>
@@ -2737,7 +2772,7 @@
         <v>96.93</v>
       </c>
     </row>
-    <row r="43" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>2015</v>
       </c>
@@ -2769,7 +2804,7 @@
         <v>112.82</v>
       </c>
     </row>
-    <row r="44" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>2015</v>
       </c>
@@ -2801,7 +2836,7 @@
         <v>113.58</v>
       </c>
     </row>
-    <row r="45" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>2015</v>
       </c>
@@ -2833,7 +2868,7 @@
         <v>107.92</v>
       </c>
     </row>
-    <row r="46" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>2015</v>
       </c>
@@ -2865,7 +2900,7 @@
         <v>91.07</v>
       </c>
     </row>
-    <row r="47" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>2015</v>
       </c>
@@ -2897,7 +2932,7 @@
         <v>111.36</v>
       </c>
     </row>
-    <row r="48" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>2015</v>
       </c>
@@ -2929,7 +2964,7 @@
         <v>98.35</v>
       </c>
     </row>
-    <row r="49" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>2015</v>
       </c>
@@ -2961,7 +2996,7 @@
         <v>89.32</v>
       </c>
     </row>
-    <row r="50" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>2015</v>
       </c>
@@ -2993,7 +3028,7 @@
         <v>106.47</v>
       </c>
     </row>
-    <row r="51" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>2015</v>
       </c>
@@ -3025,7 +3060,7 @@
         <v>92.34</v>
       </c>
     </row>
-    <row r="52" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>2015</v>
       </c>
@@ -3057,7 +3092,7 @@
         <v>96.29</v>
       </c>
     </row>
-    <row r="53" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>2015</v>
       </c>
@@ -3089,7 +3124,7 @@
         <v>106.6</v>
       </c>
     </row>
-    <row r="54" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>2015</v>
       </c>
@@ -3121,7 +3156,7 @@
         <v>102.46</v>
       </c>
     </row>
-    <row r="55" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>2015</v>
       </c>
@@ -3153,7 +3188,7 @@
         <v>85.73</v>
       </c>
     </row>
-    <row r="56" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>2015</v>
       </c>
@@ -3185,7 +3220,7 @@
         <v>106.01</v>
       </c>
     </row>
-    <row r="57" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>2015</v>
       </c>
@@ -3217,7 +3252,7 @@
         <v>94.31</v>
       </c>
     </row>
-    <row r="58" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>2015</v>
       </c>
@@ -3249,7 +3284,7 @@
         <v>85.27</v>
       </c>
     </row>
-    <row r="59" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>2015</v>
       </c>
@@ -3281,7 +3316,7 @@
         <v>109.92</v>
       </c>
     </row>
-    <row r="60" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>2015</v>
       </c>
@@ -3313,7 +3348,7 @@
         <v>109.83</v>
       </c>
     </row>
-    <row r="61" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A61">
         <v>2015</v>
       </c>
@@ -3345,7 +3380,7 @@
         <v>114.85</v>
       </c>
     </row>
-    <row r="62" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A62">
         <v>2015</v>
       </c>
@@ -3377,7 +3412,7 @@
         <v>117.72</v>
       </c>
     </row>
-    <row r="63" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A63">
         <v>2015</v>
       </c>
@@ -3409,7 +3444,7 @@
         <v>109.58</v>
       </c>
     </row>
-    <row r="64" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A64">
         <v>2015</v>
       </c>
@@ -3441,7 +3476,7 @@
         <v>106.02</v>
       </c>
     </row>
-    <row r="65" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A65">
         <v>2015</v>
       </c>
@@ -3473,7 +3508,7 @@
         <v>102.56</v>
       </c>
     </row>
-    <row r="66" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A66">
         <v>2015</v>
       </c>
@@ -3505,7 +3540,7 @@
         <v>90.95</v>
       </c>
     </row>
-    <row r="67" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A67">
         <v>2015</v>
       </c>
@@ -3537,7 +3572,7 @@
         <v>93.61</v>
       </c>
     </row>
-    <row r="68" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A68">
         <v>2015</v>
       </c>
@@ -3569,7 +3604,7 @@
         <v>100.15</v>
       </c>
     </row>
-    <row r="69" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A69">
         <v>2015</v>
       </c>
@@ -3601,7 +3636,7 @@
         <v>109.91</v>
       </c>
     </row>
-    <row r="70" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A70">
         <v>2015</v>
       </c>
@@ -3633,7 +3668,7 @@
         <v>97.19</v>
       </c>
     </row>
-    <row r="71" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A71">
         <v>2015</v>
       </c>
@@ -3665,7 +3700,7 @@
         <v>100.97</v>
       </c>
     </row>
-    <row r="72" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A72">
         <v>2015</v>
       </c>
@@ -3697,7 +3732,7 @@
         <v>117.82</v>
       </c>
     </row>
-    <row r="73" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A73">
         <v>2015</v>
       </c>
@@ -3729,7 +3764,7 @@
         <v>104.37</v>
       </c>
     </row>
-    <row r="74" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A74">
         <v>2015</v>
       </c>
@@ -3761,7 +3796,7 @@
         <v>88.08</v>
       </c>
     </row>
-    <row r="75" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A75">
         <v>2015</v>
       </c>
@@ -3793,7 +3828,7 @@
         <v>87.55</v>
       </c>
     </row>
-    <row r="76" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A76">
         <v>2015</v>
       </c>
@@ -3825,7 +3860,7 @@
         <v>90.93</v>
       </c>
     </row>
-    <row r="77" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A77">
         <v>2015</v>
       </c>
@@ -3857,7 +3892,7 @@
         <v>110.2</v>
       </c>
     </row>
-    <row r="78" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A78">
         <v>2015</v>
       </c>
@@ -3889,7 +3924,7 @@
         <v>107.91</v>
       </c>
     </row>
-    <row r="79" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A79">
         <v>2015</v>
       </c>
@@ -3921,7 +3956,7 @@
         <v>93.12</v>
       </c>
     </row>
-    <row r="80" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A80">
         <v>2015</v>
       </c>
@@ -3953,7 +3988,7 @@
         <v>105.86</v>
       </c>
     </row>
-    <row r="81" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A81">
         <v>2015</v>
       </c>
@@ -3985,7 +4020,7 @@
         <v>85.87</v>
       </c>
     </row>
-    <row r="82" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A82">
         <v>2015</v>
       </c>
@@ -4017,7 +4052,7 @@
         <v>117.93</v>
       </c>
     </row>
-    <row r="83" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A83">
         <v>2015</v>
       </c>
@@ -4049,7 +4084,7 @@
         <v>87.79</v>
       </c>
     </row>
-    <row r="84" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A84">
         <v>2016</v>
       </c>
@@ -4081,7 +4116,7 @@
         <v>103.18</v>
       </c>
     </row>
-    <row r="85" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A85">
         <v>2016</v>
       </c>
@@ -4113,7 +4148,7 @@
         <v>91.33</v>
       </c>
     </row>
-    <row r="86" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A86">
         <v>2016</v>
       </c>
@@ -4145,7 +4180,7 @@
         <v>115.57</v>
       </c>
     </row>
-    <row r="87" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A87">
         <v>2016</v>
       </c>
@@ -4177,7 +4212,7 @@
         <v>85.14</v>
       </c>
     </row>
-    <row r="88" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A88">
         <v>2016</v>
       </c>
@@ -4209,7 +4244,7 @@
         <v>106.04</v>
       </c>
     </row>
-    <row r="89" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A89">
         <v>2016</v>
       </c>
@@ -4241,7 +4276,7 @@
         <v>109.91</v>
       </c>
     </row>
-    <row r="90" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A90">
         <v>2016</v>
       </c>
@@ -4273,7 +4308,7 @@
         <v>88.55</v>
       </c>
     </row>
-    <row r="91" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A91">
         <v>2016</v>
       </c>
@@ -4305,7 +4340,7 @@
         <v>90.13</v>
       </c>
     </row>
-    <row r="92" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A92">
         <v>2016</v>
       </c>
@@ -4337,7 +4372,7 @@
         <v>108.13</v>
       </c>
     </row>
-    <row r="93" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A93">
         <v>2016</v>
       </c>
@@ -4369,7 +4404,7 @@
         <v>87.64</v>
       </c>
     </row>
-    <row r="94" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A94">
         <v>2016</v>
       </c>
@@ -4401,7 +4436,7 @@
         <v>94.66</v>
       </c>
     </row>
-    <row r="95" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A95">
         <v>2016</v>
       </c>
@@ -4433,7 +4468,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="96" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A96">
         <v>2016</v>
       </c>
@@ -4465,7 +4500,7 @@
         <v>115.67</v>
       </c>
     </row>
-    <row r="97" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A97">
         <v>2016</v>
       </c>
@@ -4497,7 +4532,7 @@
         <v>114.23</v>
       </c>
     </row>
-    <row r="98" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A98">
         <v>2016</v>
       </c>
@@ -4529,7 +4564,7 @@
         <v>88.34</v>
       </c>
     </row>
-    <row r="99" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A99">
         <v>2016</v>
       </c>
@@ -4561,7 +4596,7 @@
         <v>108.35</v>
       </c>
     </row>
-    <row r="100" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A100">
         <v>2016</v>
       </c>
@@ -4593,7 +4628,7 @@
         <v>114.69</v>
       </c>
     </row>
-    <row r="101" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A101">
         <v>2016</v>
       </c>
@@ -4625,7 +4660,7 @@
         <v>109.84</v>
       </c>
     </row>
-    <row r="102" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A102">
         <v>2016</v>
       </c>
@@ -4657,7 +4692,7 @@
         <v>91.75</v>
       </c>
     </row>
-    <row r="103" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A103">
         <v>2016</v>
       </c>
@@ -4689,7 +4724,7 @@
         <v>101.62</v>
       </c>
     </row>
-    <row r="104" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A104">
         <v>2016</v>
       </c>
@@ -4721,7 +4756,7 @@
         <v>101.37</v>
       </c>
     </row>
-    <row r="105" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A105">
         <v>2016</v>
       </c>
@@ -4753,7 +4788,7 @@
         <v>88.62</v>
       </c>
     </row>
-    <row r="106" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A106">
         <v>2016</v>
       </c>
@@ -4785,7 +4820,7 @@
         <v>117.85</v>
       </c>
     </row>
-    <row r="107" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A107">
         <v>2016</v>
       </c>
@@ -4817,7 +4852,7 @@
         <v>114.71</v>
       </c>
     </row>
-    <row r="108" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A108">
         <v>2016</v>
       </c>
@@ -4849,7 +4884,7 @@
         <v>117.9</v>
       </c>
     </row>
-    <row r="109" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A109">
         <v>2016</v>
       </c>
@@ -4881,7 +4916,7 @@
         <v>111.81</v>
       </c>
     </row>
-    <row r="110" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A110">
         <v>2016</v>
       </c>
@@ -4913,7 +4948,7 @@
         <v>98.15</v>
       </c>
     </row>
-    <row r="111" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A111">
         <v>2016</v>
       </c>
@@ -4945,7 +4980,7 @@
         <v>102.23</v>
       </c>
     </row>
-    <row r="112" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A112">
         <v>2016</v>
       </c>
@@ -4977,7 +5012,7 @@
         <v>105.82</v>
       </c>
     </row>
-    <row r="113" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A113">
         <v>2016</v>
       </c>
@@ -5009,7 +5044,7 @@
         <v>108.72</v>
       </c>
     </row>
-    <row r="114" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A114">
         <v>2016</v>
       </c>
@@ -5041,7 +5076,7 @@
         <v>97.7</v>
       </c>
     </row>
-    <row r="115" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A115">
         <v>2016</v>
       </c>
@@ -5073,7 +5108,7 @@
         <v>117.25</v>
       </c>
     </row>
-    <row r="116" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A116">
         <v>2016</v>
       </c>
@@ -5105,7 +5140,7 @@
         <v>87.71</v>
       </c>
     </row>
-    <row r="117" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A117">
         <v>2016</v>
       </c>
@@ -5137,7 +5172,7 @@
         <v>93.96</v>
       </c>
     </row>
-    <row r="118" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A118">
         <v>2016</v>
       </c>
@@ -5169,7 +5204,7 @@
         <v>98.47</v>
       </c>
     </row>
-    <row r="119" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A119">
         <v>2016</v>
       </c>
@@ -5201,7 +5236,7 @@
         <v>112.93</v>
       </c>
     </row>
-    <row r="120" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A120">
         <v>2016</v>
       </c>
@@ -5233,7 +5268,7 @@
         <v>107.8</v>
       </c>
     </row>
-    <row r="121" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A121">
         <v>2016</v>
       </c>
@@ -5265,7 +5300,7 @@
         <v>97.28</v>
       </c>
     </row>
-    <row r="122" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A122">
         <v>2016</v>
       </c>
@@ -5297,7 +5332,7 @@
         <v>103.96</v>
       </c>
     </row>
-    <row r="123" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A123">
         <v>2016</v>
       </c>
@@ -5329,7 +5364,7 @@
         <v>114.59</v>
       </c>
     </row>
-    <row r="124" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A124">
         <v>2016</v>
       </c>
@@ -5361,7 +5396,7 @@
         <v>98.73</v>
       </c>
     </row>
-    <row r="125" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A125">
         <v>2016</v>
       </c>
@@ -5393,7 +5428,7 @@
         <v>100.15</v>
       </c>
     </row>
-    <row r="126" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A126">
         <v>2016</v>
       </c>
@@ -5425,7 +5460,7 @@
         <v>103.79</v>
       </c>
     </row>
-    <row r="127" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A127">
         <v>2016</v>
       </c>
@@ -5457,7 +5492,7 @@
         <v>112.37</v>
       </c>
     </row>
-    <row r="128" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A128">
         <v>2016</v>
       </c>
@@ -5489,7 +5524,7 @@
         <v>100.43</v>
       </c>
     </row>
-    <row r="129" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A129">
         <v>2016</v>
       </c>
@@ -5521,7 +5556,7 @@
         <v>85.57</v>
       </c>
     </row>
-    <row r="130" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A130">
         <v>2016</v>
       </c>
@@ -5553,7 +5588,7 @@
         <v>105.37</v>
       </c>
     </row>
-    <row r="131" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A131">
         <v>2016</v>
       </c>
@@ -5585,7 +5620,7 @@
         <v>87.54</v>
       </c>
     </row>
-    <row r="132" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A132">
         <v>2016</v>
       </c>
@@ -5617,7 +5652,7 @@
         <v>102.95</v>
       </c>
     </row>
-    <row r="133" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A133">
         <v>2016</v>
       </c>
@@ -5649,7 +5684,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="134" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A134">
         <v>2016</v>
       </c>
@@ -5681,7 +5716,7 @@
         <v>105.36</v>
       </c>
     </row>
-    <row r="135" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A135">
         <v>2016</v>
       </c>
@@ -5713,7 +5748,7 @@
         <v>92.24</v>
       </c>
     </row>
-    <row r="136" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A136">
         <v>2016</v>
       </c>
@@ -5745,7 +5780,7 @@
         <v>94.5</v>
       </c>
     </row>
-    <row r="137" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A137">
         <v>2016</v>
       </c>
@@ -5777,7 +5812,7 @@
         <v>98.78</v>
       </c>
     </row>
-    <row r="138" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A138">
         <v>2016</v>
       </c>
@@ -5809,7 +5844,7 @@
         <v>94.65</v>
       </c>
     </row>
-    <row r="139" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A139">
         <v>2016</v>
       </c>
@@ -5841,7 +5876,7 @@
         <v>107.37</v>
       </c>
     </row>
-    <row r="140" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A140">
         <v>2016</v>
       </c>
@@ -5873,7 +5908,7 @@
         <v>90.11</v>
       </c>
     </row>
-    <row r="141" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A141">
         <v>2016</v>
       </c>
@@ -5905,7 +5940,7 @@
         <v>100.81</v>
       </c>
     </row>
-    <row r="142" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A142">
         <v>2016</v>
       </c>
@@ -5937,7 +5972,7 @@
         <v>111.78</v>
       </c>
     </row>
-    <row r="143" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A143">
         <v>2016</v>
       </c>
@@ -5969,7 +6004,7 @@
         <v>105.34</v>
       </c>
     </row>
-    <row r="144" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A144">
         <v>2016</v>
       </c>
@@ -6001,7 +6036,7 @@
         <v>88.63</v>
       </c>
     </row>
-    <row r="145" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A145">
         <v>2016</v>
       </c>
@@ -6033,7 +6068,7 @@
         <v>93.87</v>
       </c>
     </row>
-    <row r="146" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A146">
         <v>2016</v>
       </c>
@@ -6065,7 +6100,7 @@
         <v>93.89</v>
       </c>
     </row>
-    <row r="147" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A147">
         <v>2016</v>
       </c>
@@ -6097,7 +6132,7 @@
         <v>107.76</v>
       </c>
     </row>
-    <row r="148" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A148">
         <v>2016</v>
       </c>
@@ -6129,7 +6164,7 @@
         <v>105.45</v>
       </c>
     </row>
-    <row r="149" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A149">
         <v>2016</v>
       </c>
@@ -6161,7 +6196,7 @@
         <v>108.11</v>
       </c>
     </row>
-    <row r="150" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A150">
         <v>2016</v>
       </c>
@@ -6193,7 +6228,7 @@
         <v>95.69</v>
       </c>
     </row>
-    <row r="151" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A151">
         <v>2016</v>
       </c>
@@ -6225,7 +6260,7 @@
         <v>89.86</v>
       </c>
     </row>
-    <row r="152" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A152">
         <v>2016</v>
       </c>
@@ -6257,7 +6292,7 @@
         <v>94.24</v>
       </c>
     </row>
-    <row r="153" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A153">
         <v>2016</v>
       </c>
@@ -6289,7 +6324,7 @@
         <v>116.74</v>
       </c>
     </row>
-    <row r="154" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A154">
         <v>2016</v>
       </c>
@@ -6321,7 +6356,7 @@
         <v>115.82</v>
       </c>
     </row>
-    <row r="155" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A155">
         <v>2016</v>
       </c>
@@ -6353,7 +6388,7 @@
         <v>117.5</v>
       </c>
     </row>
-    <row r="156" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A156">
         <v>2016</v>
       </c>
@@ -6385,7 +6420,7 @@
         <v>87.1</v>
       </c>
     </row>
-    <row r="157" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A157">
         <v>2016</v>
       </c>
@@ -6417,7 +6452,7 @@
         <v>94.65</v>
       </c>
     </row>
-    <row r="158" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A158">
         <v>2016</v>
       </c>
@@ -6449,7 +6484,7 @@
         <v>114.39</v>
       </c>
     </row>
-    <row r="159" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A159">
         <v>2016</v>
       </c>
@@ -6481,7 +6516,7 @@
         <v>91.52</v>
       </c>
     </row>
-    <row r="160" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A160">
         <v>2016</v>
       </c>
@@ -6513,7 +6548,7 @@
         <v>114.11</v>
       </c>
     </row>
-    <row r="161" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A161">
         <v>2016</v>
       </c>
@@ -6545,7 +6580,7 @@
         <v>101.31</v>
       </c>
     </row>
-    <row r="162" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A162">
         <v>2016</v>
       </c>
@@ -6577,7 +6612,7 @@
         <v>109.62</v>
       </c>
     </row>
-    <row r="163" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A163">
         <v>2016</v>
       </c>
@@ -6609,7 +6644,7 @@
         <v>102.94</v>
       </c>
     </row>
-    <row r="164" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
         <v>57</v>
       </c>
